--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/80.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/80.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09300511239575251</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.66801392001768</v>
+        <v>-1.671748280382966</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2084322849120375</v>
+        <v>-0.2037306897967124</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3175070879608113</v>
+        <v>-0.3115085010895343</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08636504629994811</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.811935145383369</v>
+        <v>-1.811446412446205</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1935814145025655</v>
+        <v>-0.1896227564124943</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3200066303254367</v>
+        <v>-0.3133091789643023</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09029155828594329</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.993303859663923</v>
+        <v>-1.988874569856583</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.268210383100795</v>
+        <v>-0.2631310233963577</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3518427410728645</v>
+        <v>-0.3445156820632098</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1085258960683126</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.02109710229829</v>
+        <v>-2.017228950307693</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2407075469943081</v>
+        <v>-0.2370920250726804</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3560485201649799</v>
+        <v>-0.348955990004399</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1366852906424723</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.960700414594861</v>
+        <v>-1.954132032801673</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1918625856221052</v>
+        <v>-0.1912345519927062</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3695803625508019</v>
+        <v>-0.3625901436331055</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1697425795969521</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.713860374963805</v>
+        <v>-1.707959377278049</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1690865289368842</v>
+        <v>-0.1649704689346829</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3880624950731146</v>
+        <v>-0.379699731481644</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.203960772237379</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.49566512231174</v>
+        <v>-1.482823487310608</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0500639250414901</v>
+        <v>-0.0473093915792139</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3709969797599725</v>
+        <v>-0.3630497572165254</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2335219803470445</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.214404432536081</v>
+        <v>-1.198340780393647</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002136616817005458</v>
+        <v>0.002434334711251739</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3213083441387524</v>
+        <v>-0.3159960296043626</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2485150358677719</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.036094824417775</v>
+        <v>-1.014352898295249</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1473039065975244</v>
+        <v>0.1464555102911434</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3164839755319658</v>
+        <v>-0.3091049738913082</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.239382574393539</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8093313986789094</v>
+        <v>-0.782673810840561</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1751860813122448</v>
+        <v>0.1714997285301586</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3027396405647682</v>
+        <v>-0.2950537051954569</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1978975876521702</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5868233336344802</v>
+        <v>-0.5545480715522096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1708638248051531</v>
+        <v>0.1639837872259478</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2559346079737709</v>
+        <v>-0.248522551931566</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1191779095353571</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3880058303847478</v>
+        <v>-0.3440009778105445</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00660210906413551</v>
+        <v>-0.01292022181703647</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2043996479232651</v>
+        <v>-0.1978218220153496</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.00254073431847698</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08013713437306104</v>
+        <v>-0.03544128740460671</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1227647202161263</v>
+        <v>-0.13107081911923</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09442293191798608</v>
+        <v>-0.08869035427820898</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1463718661958183</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3107956987079056</v>
+        <v>0.3615342050830332</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4009253793323838</v>
+        <v>-0.4072230298367079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03800716685264728</v>
+        <v>0.03996682065866664</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3150770397008166</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6647579706677617</v>
+        <v>0.7207883293287022</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6043075380338883</v>
+        <v>-0.6115259897241733</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07658480149660583</v>
+        <v>0.08135880149151083</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4909667224711356</v>
       </c>
       <c r="E17" t="n">
-        <v>1.156503580429795</v>
+        <v>1.213988332758817</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7114148171810362</v>
+        <v>-0.7271046397821614</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1391599316639147</v>
+        <v>0.1428809128666695</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6705050221848144</v>
       </c>
       <c r="E18" t="n">
-        <v>1.510078643685811</v>
+        <v>1.567028229513591</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9041227652114401</v>
+        <v>-0.9210450447845437</v>
       </c>
       <c r="G18" t="n">
-        <v>0.189383733786377</v>
+        <v>0.1965612609795082</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8537988138413349</v>
       </c>
       <c r="E19" t="n">
-        <v>1.876932132249119</v>
+        <v>1.932450934695637</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.006695295270121</v>
+        <v>-1.029485518127433</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2537611158475752</v>
+        <v>0.2615871389186822</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.033733764771033</v>
       </c>
       <c r="E20" t="n">
-        <v>2.187037509432174</v>
+        <v>2.246988749724275</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.220579309548943</v>
+        <v>-1.245808475034711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3220672496355398</v>
+        <v>0.3323660567462102</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.200632135551284</v>
       </c>
       <c r="E21" t="n">
-        <v>2.449325759729236</v>
+        <v>2.507817884295891</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.247133012125286</v>
+        <v>-1.280536058907968</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4494778014283453</v>
+        <v>0.4575210391381918</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.349138361755052</v>
       </c>
       <c r="E22" t="n">
-        <v>2.672606668162224</v>
+        <v>2.729123398731646</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.354104138618441</v>
+        <v>-1.39233155400791</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4471246428420008</v>
+        <v>0.4589801548636375</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.478519504990451</v>
       </c>
       <c r="E23" t="n">
-        <v>2.745674209792123</v>
+        <v>2.807367889251503</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.461915791322371</v>
+        <v>-1.501801435856131</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5444383750164158</v>
+        <v>0.5573500538684453</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.591639816861177</v>
       </c>
       <c r="E24" t="n">
-        <v>2.874170834778626</v>
+        <v>2.931746880216684</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.608757609167634</v>
+        <v>-1.643957398777281</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5846309532788289</v>
+        <v>0.5979975236569143</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.68863119811417</v>
       </c>
       <c r="E25" t="n">
-        <v>2.884135949835581</v>
+        <v>2.940762861743494</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.552894883543112</v>
+        <v>-1.594154646769767</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6376816937431472</v>
+        <v>0.6523625700875187</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.76874396381422</v>
       </c>
       <c r="E26" t="n">
-        <v>2.870379022715412</v>
+        <v>2.927323886485829</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.462981402267492</v>
+        <v>-1.511298280224498</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5763059661462695</v>
+        <v>0.5939554425534141</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.833444228729982</v>
       </c>
       <c r="E27" t="n">
-        <v>2.94766808362864</v>
+        <v>2.997597544175419</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.507833864138516</v>
+        <v>-1.554242243910945</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6073550673330469</v>
+        <v>0.6232998810318229</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.883101890013135</v>
       </c>
       <c r="E28" t="n">
-        <v>2.888415707826397</v>
+        <v>2.937436959340186</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.461795378859592</v>
+        <v>-1.507699285503644</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6260685806661908</v>
+        <v>0.6412342548999229</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.919716437361787</v>
       </c>
       <c r="E29" t="n">
-        <v>2.750698478827315</v>
+        <v>2.805091857602103</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.624053139978873</v>
+        <v>-1.660649084549114</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5952807666535493</v>
+        <v>0.6109406828913698</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.943811546065937</v>
       </c>
       <c r="E30" t="n">
-        <v>2.712884243457187</v>
+        <v>2.760148889631604</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.610909293306452</v>
+        <v>-1.645340174575344</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5454189889289861</v>
+        <v>0.5628780090224533</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.954446556201407</v>
       </c>
       <c r="E31" t="n">
-        <v>2.600606311496566</v>
+        <v>2.645865657310446</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.654527724186376</v>
+        <v>-1.683148113868986</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5418538356192401</v>
+        <v>0.5554738230758549</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.952124749293669</v>
       </c>
       <c r="E32" t="n">
-        <v>2.562834574642714</v>
+        <v>2.605917052011835</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.703520643355981</v>
+        <v>-1.72814538549917</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5333116338479412</v>
+        <v>0.5465601527919292</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.934756179007979</v>
       </c>
       <c r="E33" t="n">
-        <v>2.387816240507048</v>
+        <v>2.430026711282968</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.698104443559585</v>
+        <v>-1.720475190321071</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5289453048054531</v>
+        <v>0.5426959358491359</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.903416274079003</v>
       </c>
       <c r="E34" t="n">
-        <v>2.213430662058145</v>
+        <v>2.257503197454564</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.688500565890969</v>
+        <v>-1.711449764679533</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4720035890732794</v>
+        <v>0.483256251771458</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.86038633712374</v>
       </c>
       <c r="E35" t="n">
-        <v>2.0603903569132</v>
+        <v>2.104750937808817</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.732869803891754</v>
+        <v>-1.750552334700445</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4093560540263907</v>
+        <v>0.4203065050532797</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.807215068338832</v>
       </c>
       <c r="E36" t="n">
-        <v>1.911836006263962</v>
+        <v>1.953621491877132</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.595454786563961</v>
+        <v>-1.619296454194302</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4134705400094708</v>
+        <v>0.4228186395708755</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.746014213941957</v>
       </c>
       <c r="E37" t="n">
-        <v>1.710093975486853</v>
+        <v>1.754397891694104</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.580561417638214</v>
+        <v>-1.605064960309062</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3274645612024799</v>
+        <v>0.3422461747706146</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.675874072635645</v>
       </c>
       <c r="E38" t="n">
-        <v>1.592064577657</v>
+        <v>1.636080448365052</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.476712358072158</v>
+        <v>-1.502902462231481</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2815441273576536</v>
+        <v>0.2951971692158158</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.597047866116684</v>
       </c>
       <c r="E39" t="n">
-        <v>1.418944510581622</v>
+        <v>1.463734798697355</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.43677949296476</v>
+        <v>-1.464900131576357</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2679823786085269</v>
+        <v>0.2803887973226189</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.509323315242593</v>
       </c>
       <c r="E40" t="n">
-        <v>1.187115104300851</v>
+        <v>1.234652055783253</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.514857137457759</v>
+        <v>-1.535562571988909</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2925905935509418</v>
+        <v>0.3009549311615337</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.41285759118909</v>
       </c>
       <c r="E41" t="n">
-        <v>1.10772944991805</v>
+        <v>1.151202284029254</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.453653764954664</v>
+        <v>-1.475522399616455</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1929362949431527</v>
+        <v>0.2017555240798004</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.310628970155773</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9737332021217228</v>
+        <v>1.013680233401213</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.332664424167205</v>
+        <v>-1.359698989585105</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1534205449028989</v>
+        <v>0.1622240338483337</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.204153061548885</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8891233782753256</v>
+        <v>0.9262450452320811</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.270352942202714</v>
+        <v>-1.295518359914069</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1129950118105334</v>
+        <v>0.1212334278914211</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.096387320751403</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7173994661605418</v>
+        <v>0.7555804479859326</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.195723186594924</v>
+        <v>-1.222952143374304</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09745786906417427</v>
+        <v>0.1057718380628845</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9904367596545123</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5592829493494026</v>
+        <v>0.5968925622337612</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.168048782404215</v>
+        <v>-1.189600252213064</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08411648299202963</v>
+        <v>0.09048024229944832</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8872967209960916</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3875196867565863</v>
+        <v>0.4255605808801813</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.024384909164858</v>
+        <v>-1.051174714609396</v>
       </c>
       <c r="G46" t="n">
-        <v>0.009424553628948094</v>
+        <v>0.01629042503606169</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.789282909518784</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3139500330269921</v>
+        <v>0.3473066462455963</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.050173638448249</v>
+        <v>-1.069554535888824</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02933724125220264</v>
+        <v>-0.02264923400579602</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6969100566208185</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1791557575361652</v>
+        <v>0.2118843371253704</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9193049666459459</v>
+        <v>-0.9443114084260499</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01451627720603537</v>
+        <v>-0.01232681660830611</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6111457087508825</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1788063252912364</v>
+        <v>0.207082004786282</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8912488628183217</v>
+        <v>-0.9157264341736687</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09946451516351219</v>
+        <v>-0.09146062793169819</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5326490156769207</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.001747834094044188</v>
+        <v>0.0300300379458954</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8316399716851041</v>
+        <v>-0.8565252139928679</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1059400298285432</v>
+        <v>-0.09977144889216583</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4592919400668577</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.005054848267896934</v>
+        <v>0.02100618632347856</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9303309705906572</v>
+        <v>-0.9476137005425387</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.149988954938143</v>
+        <v>-0.142545418513512</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3893501008135206</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.05434210901318537</v>
+        <v>-0.03085616970425781</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8914172828643009</v>
+        <v>-0.9100151057920292</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1574025849994692</v>
+        <v>-0.1517990769276387</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3198921983388091</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1191114218355874</v>
+        <v>-0.09692877035909678</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8463295051346427</v>
+        <v>-0.8653546742538041</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1938474237340653</v>
+        <v>-0.1880959578648326</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2490498065029365</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2236042552222548</v>
+        <v>-0.1997405513242151</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.852550028702023</v>
+        <v>-0.8707936973274586</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.245402846033148</v>
+        <v>-0.2388738147179928</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.176321766650263</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3063850688497006</v>
+        <v>-0.281809908308833</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8333367642978662</v>
+        <v>-0.8527821965224148</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2323841338808701</v>
+        <v>-0.2311438068132851</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1019726215211535</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3363213385177184</v>
+        <v>-0.3156387272638274</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8186417217814029</v>
+        <v>-0.8384885288818833</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2361838160396899</v>
+        <v>-0.2345798905550845</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02830307595711873</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3924130839243897</v>
+        <v>-0.3707766170829904</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8188243079994738</v>
+        <v>-0.8393007227484744</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3526187324996657</v>
+        <v>-0.3468578225157052</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.04229478642193417</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4110809507030159</v>
+        <v>-0.3915520954650382</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7214019685056891</v>
+        <v>-0.7447525421701847</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3619243335447954</v>
+        <v>-0.3562515686316277</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1090924023890109</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5252492796283187</v>
+        <v>-0.5045241698581525</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.718113842561292</v>
+        <v>-0.7426197462608223</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4155385728545394</v>
+        <v>-0.4090473179982954</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1721133675402593</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5414648246159584</v>
+        <v>-0.5221248516725367</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7074136605746898</v>
+        <v>-0.7321147426452616</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4163932652374057</v>
+        <v>-0.4122551689675062</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2309241779975171</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5518738130651197</v>
+        <v>-0.5375187586788575</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7188977040836997</v>
+        <v>-0.7443606114089809</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4576530284640606</v>
+        <v>-0.4527940314366054</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2850381337726223</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6626910552811734</v>
+        <v>-0.6446575182084314</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7586967775657876</v>
+        <v>-0.7848097547881659</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4916518414841555</v>
+        <v>-0.486367859293949</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3344897923349431</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7418862533502962</v>
+        <v>-0.7249702698536777</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7729762790342274</v>
+        <v>-0.7994890571134162</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5528638710924179</v>
+        <v>-0.5453904283044823</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3790338125820873</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7695055668717594</v>
+        <v>-0.7538535207295454</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8223627029841578</v>
+        <v>-0.8461965005188928</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5448741500326956</v>
+        <v>-0.5389558381366051</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4182722386856958</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8280024134957781</v>
+        <v>-0.8105056169433997</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8354490979586516</v>
+        <v>-0.8597055196274559</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5827844005692226</v>
+        <v>-0.5763561064778306</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4521398806361292</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8567038651631356</v>
+        <v>-0.8383303399601926</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9414238703480238</v>
+        <v>-0.9631799626426418</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6691335155446572</v>
+        <v>-0.6585199046097265</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4821344935410656</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9860606915994293</v>
+        <v>-0.9652915092938668</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9045792307566173</v>
+        <v>-0.9277543012890879</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.667420982740682</v>
+        <v>-0.6584050012138716</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5096877999532836</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.033709398439444</v>
+        <v>-1.014828252069881</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9893802979262525</v>
+        <v>-1.010982136346983</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7302951765410379</v>
+        <v>-0.7182334680145107</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.536259219559607</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.067085686897064</v>
+        <v>-1.044878638124193</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9543135129323551</v>
+        <v>-0.9772398884436603</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7595121194706212</v>
+        <v>-0.7473953202748486</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5624063115093851</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.222116339220893</v>
+        <v>-1.192431912612284</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9514724084184073</v>
+        <v>-0.9734795567628729</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7820835536700732</v>
+        <v>-0.7691970591239844</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5865942005198191</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.226566091276811</v>
+        <v>-1.196218215608573</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9933421040545662</v>
+        <v>-1.015324068093091</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8117727023360467</v>
+        <v>-0.7979213340686007</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.606604964337935</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.204945364626624</v>
+        <v>-1.172744081443055</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.08391431233245</v>
+        <v>-1.103256646304554</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7746888118382025</v>
+        <v>-0.7614969575825815</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6202253663757643</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.16214935873758</v>
+        <v>-1.128987923890017</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.154645222576779</v>
+        <v>-1.169026248278543</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7638217838247426</v>
+        <v>-0.7514374013783488</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6253841695820044</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.166586518640526</v>
+        <v>-1.130827952242818</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.147417326771766</v>
+        <v>-1.162431108160293</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7729337805179523</v>
+        <v>-0.7562822322337123</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6205422091392075</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.089530412557251</v>
+        <v>-1.053016316981318</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.176350159249955</v>
+        <v>-1.194322309576966</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.788134083172353</v>
+        <v>-0.7702847063368032</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6044938075762456</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9999962698898649</v>
+        <v>-0.9622827717435004</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.26023121224319</v>
+        <v>-1.27472871535993</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7291146622000624</v>
+        <v>-0.7141882388727679</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5771673739475675</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.888531318805396</v>
+        <v>-0.8523831826751651</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.207430740819158</v>
+        <v>-1.223909934009616</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7426213202799437</v>
+        <v>-0.723542634510658</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5390501516431052</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7982392859311034</v>
+        <v>-0.7606627274482921</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.20950293699235</v>
+        <v>-1.225758619467583</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7021973612066994</v>
+        <v>-0.6836066213650169</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4907706181687632</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6777591403293849</v>
+        <v>-0.6392523365458849</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.27456029531395</v>
+        <v>-1.289291540270204</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6792324222269224</v>
+        <v>-0.6603378966948289</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.433888023598091</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5048798981795665</v>
+        <v>-0.4634375487348406</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.188632230453464</v>
+        <v>-1.206183330665527</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6973399381983655</v>
+        <v>-0.6763519672349421</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.370017849205765</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2777756973009393</v>
+        <v>-0.2425664635765642</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.204022202411981</v>
+        <v>-1.2195341608524</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.627082020699988</v>
+        <v>-0.6092452360174085</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3010065979857267</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.108556049608145</v>
+        <v>-0.07467843606039026</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.210825113054243</v>
+        <v>-1.228815364601149</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.491801373300679</v>
+        <v>-0.4785056337830521</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2287973564148003</v>
       </c>
       <c r="E83" t="n">
-        <v>0.08126278632511148</v>
+        <v>0.1155653850356174</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.126393153368553</v>
+        <v>-1.14500120742057</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4491611953046434</v>
+        <v>-0.4371105049119653</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1549735099931981</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2296801973107959</v>
+        <v>0.2648390624232894</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.098873003051732</v>
+        <v>-1.119131416152432</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3580884489461856</v>
+        <v>-0.3455844410465729</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08255221528500903</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4431360783886248</v>
+        <v>0.4715502715663448</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.078753103633705</v>
+        <v>-1.096596971402331</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2801477441167394</v>
+        <v>-0.2725593979329488</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.01459425200989923</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6013108339072523</v>
+        <v>0.6297281751232149</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9703189263673011</v>
+        <v>-0.9895990865841132</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.223081680873983</v>
+        <v>-0.213292855958614</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04561381087175043</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8295514765914584</v>
+        <v>0.8535788784781134</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9257379827947018</v>
+        <v>-0.9413735017361421</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.164839825347615</v>
+        <v>-0.1555672787040326</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.09546647284152331</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9389568236557053</v>
+        <v>0.9613078951781752</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7506173374161511</v>
+        <v>-0.7678245144502103</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09964395334334046</v>
+        <v>-0.09321251121370586</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1327852532916678</v>
       </c>
       <c r="E89" t="n">
-        <v>1.185161746571316</v>
+        <v>1.205087254627862</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5922867540045149</v>
+        <v>-0.6105280616012686</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02599740095712303</v>
+        <v>0.02789409399829037</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1556706024161668</v>
       </c>
       <c r="E90" t="n">
-        <v>1.356660573951754</v>
+        <v>1.372964264010187</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5192349525658287</v>
+        <v>-0.5363099119936986</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04866957238033814</v>
+        <v>0.04915909232706266</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1634369767101818</v>
       </c>
       <c r="E91" t="n">
-        <v>1.438599287349304</v>
+        <v>1.452899251066321</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3005848083877076</v>
+        <v>-0.3199625577900403</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07849723472898618</v>
+        <v>0.07802660301171727</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1554626719583601</v>
       </c>
       <c r="E92" t="n">
-        <v>1.580996075196013</v>
+        <v>1.589854654810694</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2130111065359012</v>
+        <v>-0.2281988170373316</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09170010711845634</v>
+        <v>0.09142465377222872</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.132366074501144</v>
       </c>
       <c r="E93" t="n">
-        <v>1.593389901757135</v>
+        <v>1.600251051106885</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.007848732208205655</v>
+        <v>-0.0239777061441738</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1190282271024789</v>
+        <v>0.1169882983212732</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09658661786228581</v>
       </c>
       <c r="E94" t="n">
-        <v>1.543488773554539</v>
+        <v>1.550205113145129</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1494225363347952</v>
+        <v>0.1342788983687613</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1334667045021701</v>
+        <v>0.1299550678425483</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05238404575121716</v>
       </c>
       <c r="E95" t="n">
-        <v>1.538294510454247</v>
+        <v>1.542955181072418</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2006930611729225</v>
+        <v>0.1900825982762345</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1454890625506647</v>
+        <v>0.1411337516420257</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.005257260506788311</v>
       </c>
       <c r="E96" t="n">
-        <v>1.509733933498246</v>
+        <v>1.509368761062104</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2910197224678838</v>
+        <v>0.2807335075101837</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05281553874584415</v>
+        <v>0.05243934817585329</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03933813879730137</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352440628687547</v>
+        <v>1.351784262713964</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3060012364644237</v>
+        <v>0.2977927267468406</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03203376428731117</v>
+        <v>0.03122944051632652</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07931539716239942</v>
       </c>
       <c r="E98" t="n">
-        <v>1.291776357733497</v>
+        <v>1.288178150022204</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2591175029173614</v>
+        <v>0.250650854063885</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02940200431649642</v>
+        <v>0.02731328094253041</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1144941908893209</v>
       </c>
       <c r="E99" t="n">
-        <v>1.187795080561252</v>
+        <v>1.183745129362146</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2299178741981124</v>
+        <v>0.2251501702796926</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06396431618201692</v>
+        <v>0.05970816847801987</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1462904724328381</v>
       </c>
       <c r="E100" t="n">
-        <v>1.071157115634629</v>
+        <v>1.066847451280508</v>
       </c>
       <c r="F100" t="n">
-        <v>0.227910999818454</v>
+        <v>0.2206594937266217</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02710078836115482</v>
+        <v>0.0240770976291362</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1720714593321188</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9104324491394943</v>
+        <v>0.9060708421543701</v>
       </c>
       <c r="F101" t="n">
-        <v>0.192791485183993</v>
+        <v>0.1880772979156975</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01292336985527907</v>
+        <v>-0.01499477901891078</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1973763645458872</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7399221057672334</v>
+        <v>0.7368401763277267</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1550433586169599</v>
+        <v>0.1528113995029556</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03567424223455921</v>
+        <v>-0.03818008067566991</v>
       </c>
     </row>
   </sheetData>
